--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/result.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/result.xlsx
@@ -635,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0.67073087134291476</v>
+        <v>0.70721798964902483</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -652,7 +652,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1.0410695591983139</v>
+        <v>1.0250280221964769</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -669,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.99509999999999998</v>
+        <v>0.98262205787165502</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -686,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.9950999891648048</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -703,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.99509999999999998</v>
+        <v>0.98262205787165502</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -720,7 +720,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.9950999891648048</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -737,7 +737,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.99509909868240354</v>
+        <v>0.98262112077023578</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>26.714670234785601</v>
+        <v>26.704733225381762</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -768,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>26.714670234785601</v>
+        <v>26.704733225381762</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -785,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>27.411429571278774</v>
+        <v>24.643649665124933</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -802,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>27.047454323655526</v>
+        <v>0.34348456593554744</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>52.753948499414236</v>
+        <v>28.143453990212095</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -836,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>27.397526333620615</v>
+        <v>27.502735708031466</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -853,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>27.192134772956265</v>
+        <v>27.251327381326888</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -870,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>27.533870549261483</v>
+        <v>27.602618796028537</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -887,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1.0667742899918464</v>
+        <v>0.95118688324408152</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -904,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0.36587600847162632</v>
+        <v>1.6781026051351422</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -921,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0.76557791160849031</v>
+        <v>0.7748394579419523</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -938,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0.85209249203410431</v>
+        <v>0.85719553996033959</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -955,7 +955,7 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0.93366260481716445</v>
+        <v>0.93459107320833334</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -972,7 +972,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>18.92764103119049</v>
+        <v>20.134103260459494</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -989,7 +989,7 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>72.803438933613506</v>
+        <v>77.061540919268793</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -1006,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>9297.8026047492531</v>
+        <v>10374.86094208873</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -1023,7 +1023,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>9775.3573610844287</v>
+        <v>10374.86094208873</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1248</v>
+        <v>1.1231</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.66762999999999995</v>
+        <v>0.66661000000000004</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4.4296000000000002E-2</v>
+        <v>4.4228000000000003E-2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.13980999999999999</v>
+        <v>0.1396</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>45.287199999999999</v>
+        <v>45.814</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.99509999999999998</v>
+        <v>0.98262000000000005</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.66576999999999997</v>
+        <v>0.64488999999999996</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>45.287199999999999</v>
+        <v>45.814</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1223,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.99509999999999998</v>
+        <v>0.98262000000000005</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-9.3312999999999993E-2</v>
+        <v>-0.10468</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="B1">
-        <v>1964.2224000000001</v>
+        <v>1961.9055000000001</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -1272,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>2520.9005000000002</v>
+        <v>2518.0221000000001</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1283,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>40.967599999999997</v>
+        <v>99.865399999999994</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>56.914000000000001</v>
+        <v>138.73750000000001</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>

--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/result.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/result.xlsx
@@ -635,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0.70721798964902483</v>
+        <v>0.67067980501774105</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -652,7 +652,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1.0250280221964769</v>
+        <v>1.041008516748883</v>
       </c>
       <c r="D3" t="s">
         <v>53</v>
@@ -669,7 +669,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.98262205787165502</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -686,7 +686,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.99509999999999998</v>
+        <v>0.9951000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -703,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.98262205787165502</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -720,7 +720,7 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.99509999999999998</v>
+        <v>0.9951000000000001</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -737,7 +737,7 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.98262112077023578</v>
+        <v>0.41628105010986322</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -754,7 +754,7 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>26.704733225381762</v>
+        <v>27.899808109012554</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -768,7 +768,7 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>26.704733225381762</v>
+        <v>27.899808109012554</v>
       </c>
       <c r="D10" t="s">
         <v>54</v>
@@ -785,7 +785,7 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>24.643649665124933</v>
+        <v>27.281996315648961</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -802,7 +802,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>0.34348456593554744</v>
+        <v>57.824359248942173</v>
       </c>
       <c r="D12" t="s">
         <v>54</v>
@@ -819,7 +819,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>28.143453990212095</v>
+        <v>25.469301303150765</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -836,7 +836,7 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>27.502735708031466</v>
+        <v>143.7514353515248</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>
@@ -853,7 +853,7 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>27.251327381326888</v>
+        <v>111.02186249759389</v>
       </c>
       <c r="D15" t="s">
         <v>54</v>
@@ -870,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="C16">
-        <v>27.602618796028537</v>
+        <v>163.5972245228638</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
@@ -887,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0.95118688324408152</v>
+        <v>0.76851015869409212</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -904,7 +904,7 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1.6781026051351422</v>
+        <v>1.6090628430751452</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -921,7 +921,7 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0.7748394579419523</v>
+        <v>0.7655675685032195</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -938,7 +938,7 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0.85719553996033959</v>
+        <v>0.85208192806409333</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -955,7 +955,7 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0.93459107320833334</v>
+        <v>0.93364862383275715</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -972,7 +972,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>20.134103260459494</v>
+        <v>18.926262628145039</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
@@ -989,7 +989,7 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>77.061540919268793</v>
+        <v>72.798573981688378</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
@@ -1006,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>10374.86094208873</v>
+        <v>9293.5560859450889</v>
       </c>
       <c r="D24" t="s">
         <v>56</v>
@@ -1023,7 +1023,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>10374.86094208873</v>
+        <v>9770.2657736666588</v>
       </c>
       <c r="D25" t="s">
         <v>56</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1231</v>
+        <v>1.1248</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.66661000000000004</v>
+        <v>0.66762999999999995</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4.4228000000000003E-2</v>
+        <v>4.4296000000000002E-2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.1396</v>
+        <v>0.13980999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>45.191600000000001</v>
+        <v>87.722899999999996</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1124,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.99509999999999998</v>
+        <v>0.48660999999999999</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1135,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.66576999999999997</v>
+        <v>-0.18542</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1146,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>45.814</v>
+        <v>102.0414</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.98262000000000005</v>
+        <v>0.41627999999999998</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1168,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.64488999999999996</v>
+        <v>-0.30314999999999998</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>45.814</v>
+        <v>45.287199999999999</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1223,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.98262000000000005</v>
+        <v>0.99509999999999998</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1234,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.10468</v>
+        <v>-9.3312999999999993E-2</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="B1">
-        <v>1961.9055000000001</v>
+        <v>1959.0945999999999</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -1272,7 +1272,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>2518.0221000000001</v>
+        <v>2520.9005000000002</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -1283,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>99.865399999999994</v>
+        <v>100.0184</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1294,7 +1294,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>138.73750000000001</v>
+        <v>138.95009999999999</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
